--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\Tipificador Mejor\36 - Primigenio - Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.millan.o\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844D2515-EE4F-44ED-A421-39F200AC0756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B12E94-F412-4088-A562-4E97081FE3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1006,9 +1006,6 @@
     <t>#00FFCC</t>
   </si>
   <si>
-    <t>N° Afectado:Número Afectado;Marca/Modelo:Marca/Modelo;IMEI:IMEI;Estado MTC:Estado MTC;Estado XIUS:Estado XIUS;Consumo XIUS|name=consumo_xius|type=choices|choices=SI;NO;N/A:¿Aparece consumo en XIUS?;Retoma|name=retoma|type=choices|choices=SI;NO: Indica si retoma;Escalamiento |name=escalamiento|type=choices|choices=SI;NO:Indica si se escala</t>
-  </si>
-  <si>
     <t>Transferencia a contención</t>
   </si>
   <si>
@@ -1016,6 +1013,9 @@
   </si>
   <si>
     <t>Sondear al cliente sobre la razón de la baja, y ofrecer realizar soporte o transferir a soporte. Realizar validación de datos (Teléfono / correo y/o dirección).</t>
+  </si>
+  <si>
+    <t>N Afectado:Número Afectado;Marca/Modelo:Marca/Modelo;IMEI:IMEI;Estado MTC:Estado MTC;Estado XIUS:Estado XIUS;Consumo XIUS|name=consumo_xius|type=choices|choices=SI;NO;N/A:¿Aparece consumo en XIUS?;Retoma|name=retoma|type=choices|choices=SI;NO: Indica si retoma;Escalamiento |name=escalamiento|type=choices|choices=SI;NO:Indica si se escala</t>
   </si>
 </sst>
 </file>
@@ -1401,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,16 +1574,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>277</v>
@@ -3646,7 +3646,7 @@
         <v>4</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>285</v>
@@ -3704,7 +3704,7 @@
         <v>4</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>285</v>
@@ -3762,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>285</v>
@@ -3820,7 +3820,7 @@
         <v>4</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>285</v>
@@ -3878,7 +3878,7 @@
         <v>4</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>285</v>
@@ -3936,7 +3936,7 @@
         <v>4</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>285</v>
@@ -3997,7 +3997,7 @@
         <v>4</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>285</v>
@@ -4055,7 +4055,7 @@
         <v>4</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>285</v>
@@ -4113,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>285</v>
@@ -4171,7 +4171,7 @@
         <v>4</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>285</v>
@@ -4229,7 +4229,7 @@
         <v>4</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>285</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.millan.o\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\Tipificador Mejor\36 - Primigenio - Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B12E94-F412-4088-A562-4E97081FE3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5FDC6A-2E3C-4896-AA12-773B59CC8A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="327">
   <si>
     <t>No recibe mensajes de texto</t>
   </si>
@@ -1015,7 +1015,37 @@
     <t>Sondear al cliente sobre la razón de la baja, y ofrecer realizar soporte o transferir a soporte. Realizar validación de datos (Teléfono / correo y/o dirección).</t>
   </si>
   <si>
-    <t>N Afectado:Número Afectado;Marca/Modelo:Marca/Modelo;IMEI:IMEI;Estado MTC:Estado MTC;Estado XIUS:Estado XIUS;Consumo XIUS|name=consumo_xius|type=choices|choices=SI;NO;N/A:¿Aparece consumo en XIUS?;Retoma|name=retoma|type=choices|choices=SI;NO: Indica si retoma;Escalamiento |name=escalamiento|type=choices|choices=SI;NO:Indica si se escala</t>
+    <t>Consulta por plan contratado</t>
+  </si>
+  <si>
+    <t>Cliente se comunica para solicitar información detallada sobre el plan que contrató.</t>
+  </si>
+  <si>
+    <t>Se le debe brindar información completa sobre su plan.</t>
+  </si>
+  <si>
+    <t>Consulta plan contratado</t>
+  </si>
+  <si>
+    <t>Comunicación servicio empresa</t>
+  </si>
+  <si>
+    <t>Transferencia a emprendedores</t>
+  </si>
+  <si>
+    <t>Cliente (emprendedor) indica que desea realizar procesos (soporte técnico, consulta de boleta, consulta de plan, baja).</t>
+  </si>
+  <si>
+    <t>Comunicación con otras áreas</t>
+  </si>
+  <si>
+    <t>Validar que sea el titular el que llama. Realizar validación de datos (Teléfono / correo y/o dirección).</t>
+  </si>
+  <si>
+    <t>N Afectado:Número Afectado;Marca/Modelo:Marca/Modelo;IMEI:IMEI;Estado MCT:Estado MCT;Estado XIUS:Estado XIUS;Consumo XIUS|name=consumo_xius|type=choices|choices=SI;NO;N/A:¿Aparece consumo en XIUS?;Retoma|name=retoma|type=choices|choices=SI;NO: Indica si retoma;Escalamiento |name=escalamiento|type=choices|choices=SI;NO:Indica si se escala</t>
+  </si>
+  <si>
+    <t>Cliente se comunica para cambiarse al segmento de empresa, o el cliente (empresa) indica que desea realizar procesos (soporte técnico, consulta de boleta, consulta de plan, baja). Se deriva a la linea 6009100200, pero el usuario indica que ya se comunicó anteriormente. Se sugiere enviar solicitud (Rut empresa, Razón social, Rut persona, Nombre, Teléfono de contacto, solicitud que indique quiere adquirir/cambiar contrato empresa.</t>
   </si>
 </sst>
 </file>
@@ -1399,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49:L59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,7 +1587,7 @@
         <v>275</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>277</v>
@@ -1597,122 +1627,78 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>181</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>224</v>
+        <v>322</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f t="shared" ref="I7:I32" si="0">CONCATENATE($Q$1," ",Q7,",",$R$1," ",R7,",",$S$1," ",S7,",",$T$1," ",T7)</f>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Solicitud Cambio de Plan,Estado: Cerrado</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>2</v>
+        <v>292</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>182</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>225</v>
+        <v>326</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Solicitud Cambio de Titularidad,Estado: Cerrado</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>2</v>
+        <v>324</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Reconexión Con 36,Estado: Cerrado</v>
+        <f t="shared" ref="I9:I35" si="0">CONCATENATE($Q$1," ",Q9,",",$R$1," ",R9,",",$S$1," ",S9,",",$T$1," ",T9)</f>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Solicitud Cambio de Plan,Estado: Cerrado</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>2</v>
@@ -1730,37 +1716,37 @@
         <v>7</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Reconexión Pdte.,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Solicitud Cambio de Titularidad,Estado: Cerrado</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>2</v>
@@ -1778,37 +1764,37 @@
         <v>7</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Solicitud cambio de número,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Reconexión Con 36,Estado: Cerrado</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>2</v>
@@ -1826,37 +1812,37 @@
         <v>7</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Solicitud de Baja,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Reconexión Pdte.,Estado: Cerrado</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>2</v>
@@ -1874,43 +1860,43 @@
         <v>7</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C13" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta por baja,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Solicitud cambio de número,Estado: Cerrado</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1922,43 +1908,43 @@
         <v>7</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C14" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Sucursal Virtual,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Solicitud de Baja,Estado: Cerrado</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1970,37 +1956,37 @@
         <v>7</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta por proporcional,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta por baja,Estado: Cerrado</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>2</v>
@@ -2018,37 +2004,37 @@
         <v>7</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta de reclamos,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Sucursal Virtual,Estado: Cerrado</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>2</v>
@@ -2066,37 +2052,37 @@
         <v>7</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta medios de pago,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta por proporcional,Estado: Cerrado</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>2</v>
@@ -2114,37 +2100,37 @@
         <v>7</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta por boletas emitidas,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta de reclamos,Estado: Cerrado</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>2</v>
@@ -2162,37 +2148,37 @@
         <v>7</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta por consumo,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta medios de pago,Estado: Cerrado</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>2</v>
@@ -2210,37 +2196,37 @@
         <v>7</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta ciclo de facturación,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta por boletas emitidas,Estado: Cerrado</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>2</v>
@@ -2258,37 +2244,37 @@
         <v>7</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Ingreso de reclamos,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta por consumo,Estado: Cerrado</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>2</v>
@@ -2306,37 +2292,37 @@
         <v>7</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Problemas con pagos en medios no presenciales,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta ciclo de facturación,Estado: Cerrado</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>2</v>
@@ -2354,37 +2340,37 @@
         <v>7</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>193</v>
+        <v>316</v>
       </c>
       <c r="C23" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta por servicio suspendido,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta plan contratado,Estado: Cerrado</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>2</v>
@@ -2402,37 +2388,34 @@
         <v>7</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>39</v>
+        <v>319</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Envío de boleta,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Ingreso de reclamos,Estado: Cerrado</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>2</v>
@@ -2450,43 +2433,43 @@
         <v>7</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C25" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta técnica,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Problemas con pagos en medios no presenciales,Estado: Cerrado</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -2498,43 +2481,43 @@
         <v>7</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C26" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Falla técnica / Llamada transferida,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta por servicio suspendido,Estado: Cerrado</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -2546,43 +2529,43 @@
         <v>7</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C27" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="I27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta Comercial / Llamada Transferida,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Envío de boleta,Estado: Cerrado</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -2594,37 +2577,37 @@
         <v>7</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C28" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Solicitud Alta Nueva,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta técnica,Estado: Cerrado</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>2</v>
@@ -2642,43 +2625,43 @@
         <v>7</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C29" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="I29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Anulación portabilidad,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Falla técnica / Llamada transferida,Estado: Cerrado</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -2690,43 +2673,43 @@
         <v>7</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="T29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C30" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="I30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta portabilidad,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta Comercial / Llamada Transferida,Estado: Cerrado</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -2738,43 +2721,43 @@
         <v>7</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C31" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="I31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Broma telefónica,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Solicitud Alta Nueva,Estado: Cerrado</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2786,43 +2769,43 @@
         <v>7</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C32" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Bloqueo/Robo/Pérdida SIM,Estado: Cerrado</v>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Anulación portabilidad,Estado: Cerrado</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -2834,181 +2817,181 @@
         <v>7</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="T32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C33" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J33" s="2" t="str">
-        <f t="shared" ref="J33:J47" si="1">CONCATENATE($Q$1," ",Q33,",",$R$1," ",R33,",",$S$1," ",S33,",",$T$1," ",U33)</f>
-        <v>Tipo de Tarea: Gestión Comercial,Motivo: Pagos no reflejados,Subvaloración: N/A,Estado: Pdte. Comercial</v>
+        <v>159</v>
+      </c>
+      <c r="I33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Consulta portabilidad,Estado: Cerrado</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C34" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Tipo de Tarea: Gestión Comercial,Motivo: Aplicar saldo a favor,Subvaloración: N/A,Estado: Pdte. Comercial</v>
+        <v>56</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Broma telefónica,Estado: Cerrado</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="S34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V34" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="C35" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Tipo de Tarea: Requerimiento,Motivo: Dcto. Interrupción servicio Móvil,Subvaloración: N/A,Estado: Abierto</v>
+        <v>160</v>
+      </c>
+      <c r="I35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Tipo de Tarea: CC Actividad,Motivo: Atención Mundo Móvil,Subvaloración: Bloqueo/Robo/Pérdida SIM,Estado: Cerrado</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C36" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Tipo de Tarea: Requerimiento,Motivo: Registro de llamadas Móvil,Subvaloración: N/A,Estado: Abierto</v>
+        <f t="shared" ref="J36:J50" si="1">CONCATENATE($Q$1," ",Q36,",",$R$1," ",R36,",",$S$1," ",S36,",",$T$1," ",U36)</f>
+        <v>Tipo de Tarea: Gestión Comercial,Motivo: Pagos no reflejados,Subvaloración: N/A,Estado: Pdte. Comercial</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>2</v>
@@ -3020,43 +3003,43 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>56</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C37" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J37" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Tipo de Tarea: Requerimiento,Motivo: Solicitud de audio,Subvaloración: N/A,Estado: Abierto</v>
+        <v>Tipo de Tarea: Gestión Comercial,Motivo: Aplicar saldo a favor,Subvaloración: N/A,Estado: Pdte. Comercial</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>2</v>
@@ -3068,43 +3051,43 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>56</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C38" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J38" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Tipo de Tarea: Reclamo Mundo Móvil,Motivo: Error Facturación Móvil,Subvaloración: N/A,Estado: Abierto</v>
+        <v>Tipo de Tarea: Requerimiento,Motivo: Dcto. Interrupción servicio Móvil,Subvaloración: N/A,Estado: Abierto</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>2</v>
@@ -3116,10 +3099,10 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>56</v>
@@ -3128,177 +3111,175 @@
         <v>67</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C39" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Conectado sin SIM,Subvaloración: Ninguna,Estado: Pdte. Bo Móvil</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>3</v>
+        <v>Tipo de Tarea: Requerimiento,Motivo: Registro de llamadas Móvil,Subvaloración: N/A,Estado: Abierto</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
+        <v>283</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
       <c r="Q39" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C40" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J40" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Demora entrega de_x000D_
-SIM,Subvaloración: Ninguna,Estado: Pdte. Bo Móvil</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>3</v>
+        <v>Tipo de Tarea: Requerimiento,Motivo: Solicitud de audio,Subvaloración: N/A,Estado: Abierto</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
+        <v>283</v>
+      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
       <c r="Q40" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C41" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>117</v>
+        <v>255</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Demora entrega de_x000D_
-SIM,Subvaloración: Ninguna,Estado: Pdte. Bo Móvil</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>3</v>
+        <v>Tipo de Tarea: Reclamo Mundo Móvil,Motivo: Error Facturación Móvil,Subvaloración: N/A,Estado: Abierto</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
+        <v>283</v>
+      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
       <c r="Q41" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C42" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="J42" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Error entrega de SIM,Subvaloración: Ninguna,Estado: Pdte. Bo Móvil</v>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Conectado sin SIM,Subvaloración: Ninguna,Estado: Pdte. Bo Móvil</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>3</v>
@@ -3313,7 +3294,7 @@
         <v>80</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="S42" s="2" t="s">
         <v>82</v>
@@ -3322,31 +3303,32 @@
         <v>83</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C43" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="J43" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Robo/Extravío SIM,Subvaloración: Ninguna,Estado: Pdte. Bo Móvil</v>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Demora entrega de_x000D_
+SIM,Subvaloración: Ninguna,Estado: Pdte. Bo Móvil</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>3</v>
@@ -3361,7 +3343,7 @@
         <v>80</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="S43" s="2" t="s">
         <v>82</v>
@@ -3370,32 +3352,32 @@
         <v>83</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C44" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>120</v>
+        <v>217</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="J44" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Baja móvil/Línea_x000D_
-Nueva,Subvaloración: Ninguna,Estado: Pdte. Bo Móvil</v>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Demora entrega de_x000D_
+SIM,Subvaloración: Ninguna,Estado: Pdte. Bo Móvil</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>3</v>
@@ -3410,7 +3392,7 @@
         <v>80</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>82</v>
@@ -3419,32 +3401,31 @@
         <v>83</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C45" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="J45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Baja_x000D_
-móvil/Portabilidad,Subvaloración: Ninguna,Estado: Pdte. Bo Móvil</v>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Error entrega de SIM,Subvaloración: Ninguna,Estado: Pdte. Bo Móvil</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>3</v>
@@ -3459,7 +3440,7 @@
         <v>80</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="S45" s="2" t="s">
         <v>82</v>
@@ -3468,31 +3449,31 @@
         <v>83</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C46" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Error activación bolsas,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil</v>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Robo/Extravío SIM,Subvaloración: Ninguna,Estado: Pdte. Bo Móvil</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>3</v>
@@ -3507,40 +3488,41 @@
         <v>80</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S46" s="2" t="s">
         <v>82</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C47" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J47" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Ciclo facturación no Corresponde,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil</v>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Baja móvil/Línea_x000D_
+Nueva,Subvaloración: Ninguna,Estado: Pdte. Bo Móvil</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>3</v>
@@ -3555,13 +3537,13 @@
         <v>80</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S47" s="2" t="s">
         <v>82</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>56</v>
@@ -3569,200 +3551,174 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="C48" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I48" s="2" t="str">
-        <f t="shared" ref="I48:I59" si="2">CONCATENATE($Q$1," ",Q48,",",$R$1," ",R48,",",$S$1," ",S48,",",$T$1," ",T48)</f>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Bloqueo/Desbloqueo de IMEI/SIM,Subvaloración: Ninguna,Estado: Cerrado</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="J48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Baja_x000D_
+móvil/Portabilidad,Subvaloración: Ninguna,Estado: Pdte. Bo Móvil</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
       <c r="Q48" s="2" t="s">
         <v>80</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="S48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="T48" s="2" t="s">
-        <v>9</v>
+      <c r="U48" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="C49" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: No emite llamadas,Subvaloración: Ninguna,Estado: Cerrado</v>
+        <v>56</v>
       </c>
       <c r="J49" s="2" t="str">
-        <f t="shared" ref="J49:J59" si="3">CONCATENATE($Q$1," ",Q49,",",$R$1," ",R49,",",$S$1," ",S49,",",$T$1," ",U49)</f>
-        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: No emite llamadas,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>316</v>
+        <f t="shared" si="1"/>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Error activación bolsas,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
       <c r="Q49" s="2" t="s">
         <v>80</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="S49" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="T49" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="U49" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="C50" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I50" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: No envía USSD,Subvaloración: Ninguna,Estado: Cerrado</v>
+        <v>56</v>
       </c>
       <c r="J50" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: No envía USSD,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>316</v>
+        <f t="shared" si="1"/>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Ciclo facturación no Corresponde,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
       <c r="Q50" s="2" t="s">
         <v>80</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="S50" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="T50" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="U50" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="C51" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: No ingresan llamadas,Subvaloración: Ninguna,Estado: Cerrado</v>
-      </c>
-      <c r="J51" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: No ingresan llamadas,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
+        <f t="shared" ref="I51:I62" si="2">CONCATENATE($Q$1," ",Q51,",",$R$1," ",R51,",",$S$1," ",S51,",",$T$1," ",T51)</f>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Bloqueo/Desbloqueo de IMEI/SIM,Subvaloración: Ninguna,Estado: Cerrado</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>285</v>
@@ -3774,7 +3730,7 @@
         <v>80</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="S51" s="2" t="s">
         <v>82</v>
@@ -3782,25 +3738,22 @@
       <c r="T51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U51" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="V51" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>295</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>125</v>
@@ -3810,17 +3763,17 @@
       </c>
       <c r="I52" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Problema número específico,Subvaloración: Ninguna,Estado: Cerrado</v>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: No emite llamadas,Subvaloración: Ninguna,Estado: Cerrado</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: Problema número específico,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
+        <f t="shared" ref="J52:J62" si="3">CONCATENATE($Q$1," ",Q52,",",$R$1," ",R52,",",$S$1," ",S52,",",$T$1," ",U52)</f>
+        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: No emite llamadas,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
       </c>
       <c r="K52" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>285</v>
@@ -3832,7 +3785,7 @@
         <v>80</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S52" s="2" t="s">
         <v>82</v>
@@ -3849,16 +3802,16 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C53" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>125</v>
@@ -3868,17 +3821,17 @@
       </c>
       <c r="I53" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Voz entrecortada,Subvaloración: Ninguna,Estado: Cerrado</v>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: No envía USSD,Subvaloración: Ninguna,Estado: Cerrado</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: Voz entrecortada,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
+        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: No envía USSD,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
       </c>
       <c r="K53" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>285</v>
@@ -3890,7 +3843,7 @@
         <v>80</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S53" s="2" t="s">
         <v>82</v>
@@ -3907,36 +3860,36 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="C54" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>125</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I54" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Navegación Lenta,Subvaloración: Ninguna,Estado: Cerrado</v>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: No ingresan llamadas,Subvaloración: Ninguna,Estado: Cerrado</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: Navegación Lenta,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
+        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: No ingresan llamadas,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
       </c>
       <c r="K54" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>285</v>
@@ -3948,7 +3901,7 @@
         <v>80</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S54" s="2" t="s">
         <v>82</v>
@@ -3960,44 +3913,41 @@
         <v>113</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="C55" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>125</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I55" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: No navega,Subvaloración: Ninguna,Estado: Cerrado</v>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Problema número específico,Subvaloración: Ninguna,Estado: Cerrado</v>
       </c>
       <c r="J55" s="2" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: No navega,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
+        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: Problema número específico,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
       </c>
       <c r="K55" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>285</v>
@@ -4009,7 +3959,7 @@
         <v>80</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>82</v>
@@ -4021,41 +3971,41 @@
         <v>113</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C56" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>125</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I56" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: No emite SMS,Subvaloración: Ninguna,Estado: Cerrado</v>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Voz entrecortada,Subvaloración: Ninguna,Estado: Cerrado</v>
       </c>
       <c r="J56" s="2" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: No emite SMS,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
+        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: Voz entrecortada,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
       </c>
       <c r="K56" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>285</v>
@@ -4067,7 +4017,7 @@
         <v>80</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S56" s="2" t="s">
         <v>82</v>
@@ -4079,41 +4029,41 @@
         <v>113</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="C57" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>125</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I57" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: No recibe SMS,Subvaloración: Ninguna,Estado: Cerrado</v>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Navegación Lenta,Subvaloración: Ninguna,Estado: Cerrado</v>
       </c>
       <c r="J57" s="2" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: No recibe SMS,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
+        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: Navegación Lenta,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
       </c>
       <c r="K57" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>285</v>
@@ -4125,7 +4075,7 @@
         <v>80</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="S57" s="2" t="s">
         <v>82</v>
@@ -4137,41 +4087,44 @@
         <v>113</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="C58" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>125</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I58" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: No recibe SMS de Validación,Subvaloración: Ninguna,Estado: Cerrado</v>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: No navega,Subvaloración: Ninguna,Estado: Cerrado</v>
       </c>
       <c r="J58" s="2" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: No recibe SMS de Validación,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
+        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: No navega,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
       </c>
       <c r="K58" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>285</v>
@@ -4183,7 +4136,7 @@
         <v>80</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="S58" s="2" t="s">
         <v>82</v>
@@ -4195,41 +4148,41 @@
         <v>113</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C59" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>125</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I59" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Sin Señal de Voz.,Subvaloración: Ninguna,Estado: Cerrado</v>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: No emite SMS,Subvaloración: Ninguna,Estado: Cerrado</v>
       </c>
       <c r="J59" s="2" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: Sin Señal de Voz.,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
+        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: No emite SMS,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
       </c>
       <c r="K59" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>285</v>
@@ -4241,7 +4194,7 @@
         <v>80</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="S59" s="2" t="s">
         <v>82</v>
@@ -4253,31 +4206,181 @@
         <v>113</v>
       </c>
       <c r="V59" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
+        <v>58</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: No recibe SMS,Subvaloración: Ninguna,Estado: Cerrado</v>
+      </c>
+      <c r="J60" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: No recibe SMS,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C61" s="2">
+        <v>59</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: No recibe SMS de Validación,Subvaloración: Ninguna,Estado: Cerrado</v>
+      </c>
+      <c r="J61" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: No recibe SMS de Validación,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C62" s="2">
+        <v>60</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Tipo de Tarea: SSTT MÓVIL,Motivo: Sin Señal de Voz.,Subvaloración: Ninguna,Estado: Cerrado</v>
+      </c>
+      <c r="J62" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Tipo de Tarea: SSTT MÓVIL,Motivo: Sin Señal de Voz.,Subvaloración: Ninguna,Estado: Soporte Tecnico Movil </v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V62" s="2" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T72" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="U72" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T73" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="U73" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T74" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="U74" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="75" spans="20:21" x14ac:dyDescent="0.25">
@@ -4341,6 +4444,30 @@
         <v>113</v>
       </c>
       <c r="U82" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="U83" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T84" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="U84" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="U85" s="2" t="s">
         <v>114</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\Tipificador Mejor\36 - Primigenio - Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gervis.pajaro.p\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5FDC6A-2E3C-4896-AA12-773B59CC8A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA2422F-A4AF-4893-828B-22CF6E6E00E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="329">
   <si>
     <t>No recibe mensajes de texto</t>
   </si>
@@ -949,9 +949,6 @@
     <t>Realizar validación de datos (Teléfono / correo y/o dirección).</t>
   </si>
   <si>
-    <t>Sin señal voz</t>
-  </si>
-  <si>
     <t>Problema de número específico</t>
   </si>
   <si>
@@ -1042,10 +1039,19 @@
     <t>Validar que sea el titular el que llama. Realizar validación de datos (Teléfono / correo y/o dirección).</t>
   </si>
   <si>
-    <t>N Afectado:Número Afectado;Marca/Modelo:Marca/Modelo;IMEI:IMEI;Estado MCT:Estado MCT;Estado XIUS:Estado XIUS;Consumo XIUS|name=consumo_xius|type=choices|choices=SI;NO;N/A:¿Aparece consumo en XIUS?;Retoma|name=retoma|type=choices|choices=SI;NO: Indica si retoma;Escalamiento |name=escalamiento|type=choices|choices=SI;NO:Indica si se escala</t>
-  </si>
-  <si>
     <t>Cliente se comunica para cambiarse al segmento de empresa, o el cliente (empresa) indica que desea realizar procesos (soporte técnico, consulta de boleta, consulta de plan, baja). Se deriva a la linea 6009100200, pero el usuario indica que ya se comunicó anteriormente. Se sugiere enviar solicitud (Rut empresa, Razón social, Rut persona, Nombre, Teléfono de contacto, solicitud que indique quiere adquirir/cambiar contrato empresa.</t>
+  </si>
+  <si>
+    <t>N Afectado:Número Afectado;Marca/Modelo:Marca/Modelo;Recurrencia:¿El usuario es recurrente?;IMEI:IMEI;Estado MCT:Estado MCT;Estado XIUS:Estado XIUS;Consumo XIUS|name=consumo_xius|type=choices|choices=SI;NO;N/A:¿Aparece consumo en XIUS?;Valida XIUS|name=vXius|type=choices|choices=SIM coincide en CRM y XIUS;SIM no coincide CRM y XIUS: Indica si coinciden;Retoma|name=retoma|type=choices|choices=SI;NO: Indica si retoma;Escalamiento |name=escalamiento|type=choices|choices=SI;NO:Indica si se escala</t>
+  </si>
+  <si>
+    <t>N Afectado:Número Afectado;Marca/Modelo:Marca/Modelo;Recurrencia:¿El usuario es recurrente?;APPS:Indica las apps afectadas;IMEI:IMEI;Estado MCT:Estado MCT;Estado XIUS:Estado XIUS;Consumo XIUS|name=consumo_xius|type=choices|choices=SI;NO;N/A:¿Aparece consumo en XIUS?;Valida XIUS|name=vXius|type=choices|choices=SIM coincide en CRM y XIUS;SIM no coincide CRM y XIUS: Indica si coinciden;Retoma|name=retoma|type=choices|choices=SI;NO: Indica si retoma;Escalamiento |name=escalamiento|type=choices|choices=SI;NO:Indica si se escala</t>
+  </si>
+  <si>
+    <t>No recibe llamadas</t>
+  </si>
+  <si>
+    <t>N Afectado:Número Afectado;Marca/Modelo:Marca/Modelo;Recurrencia:¿El usuario es recurrente?;Fecha/Hora Intento:¿Cuando se realizó el último intento?;Origen: Ingresa el número de origen; Destino: Ingresa el número de destino; Mensaje de error: Mensaje que escucha/ve el cliente;IMEI:IMEI;Estado MCT:Estado MCT;Estado XIUS:Estado XIUS;Consumo XIUS|name=consumo_xius|type=choices|choices=SI;NO;N/A:¿Aparece consumo en XIUS?;Valida XIUS|name=vXius|type=choices|choices=SIM coincide en CRM y XIUS;SIM no coincide CRM y XIUS: Indica si coinciden;Retoma|name=retoma|type=choices|choices=SI;NO: Indica si retoma;Escalamiento |name=escalamiento|type=choices|choices=SI;NO:Indica si se escala</t>
   </si>
 </sst>
 </file>
@@ -1431,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="E40" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,43 +1450,43 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>76</v>
@@ -1506,16 +1512,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1532,7 +1538,7 @@
         <v>289</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>293</v>
@@ -1604,16 +1610,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>277</v>
@@ -1630,13 +1636,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" s="2">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>292</v>
@@ -1656,22 +1662,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>277</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -2354,19 +2360,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C23" s="2">
         <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2388,7 +2394,7 @@
         <v>7</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>9</v>
@@ -3773,7 +3779,7 @@
         <v>4</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>285</v>
@@ -3863,7 +3869,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="C54" s="2">
         <v>52</v>
@@ -3889,7 +3895,7 @@
         <v>4</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>285</v>
@@ -3921,7 +3927,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C55" s="2">
         <v>53</v>
@@ -4104,7 +4110,7 @@
         <v>269</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>125</v>
@@ -4182,7 +4188,7 @@
         <v>4</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>285</v>
@@ -4240,7 +4246,7 @@
         <v>4</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>285</v>
@@ -4298,7 +4304,7 @@
         <v>4</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>285</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gervis.pajaro.p\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA2422F-A4AF-4893-828B-22CF6E6E00E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCE5701-792F-49AC-A332-AD3739E16E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1042,16 +1042,16 @@
     <t>Cliente se comunica para cambiarse al segmento de empresa, o el cliente (empresa) indica que desea realizar procesos (soporte técnico, consulta de boleta, consulta de plan, baja). Se deriva a la linea 6009100200, pero el usuario indica que ya se comunicó anteriormente. Se sugiere enviar solicitud (Rut empresa, Razón social, Rut persona, Nombre, Teléfono de contacto, solicitud que indique quiere adquirir/cambiar contrato empresa.</t>
   </si>
   <si>
-    <t>N Afectado:Número Afectado;Marca/Modelo:Marca/Modelo;Recurrencia:¿El usuario es recurrente?;IMEI:IMEI;Estado MCT:Estado MCT;Estado XIUS:Estado XIUS;Consumo XIUS|name=consumo_xius|type=choices|choices=SI;NO;N/A:¿Aparece consumo en XIUS?;Valida XIUS|name=vXius|type=choices|choices=SIM coincide en CRM y XIUS;SIM no coincide CRM y XIUS: Indica si coinciden;Retoma|name=retoma|type=choices|choices=SI;NO: Indica si retoma;Escalamiento |name=escalamiento|type=choices|choices=SI;NO:Indica si se escala</t>
-  </si>
-  <si>
-    <t>N Afectado:Número Afectado;Marca/Modelo:Marca/Modelo;Recurrencia:¿El usuario es recurrente?;APPS:Indica las apps afectadas;IMEI:IMEI;Estado MCT:Estado MCT;Estado XIUS:Estado XIUS;Consumo XIUS|name=consumo_xius|type=choices|choices=SI;NO;N/A:¿Aparece consumo en XIUS?;Valida XIUS|name=vXius|type=choices|choices=SIM coincide en CRM y XIUS;SIM no coincide CRM y XIUS: Indica si coinciden;Retoma|name=retoma|type=choices|choices=SI;NO: Indica si retoma;Escalamiento |name=escalamiento|type=choices|choices=SI;NO:Indica si se escala</t>
-  </si>
-  <si>
     <t>No recibe llamadas</t>
   </si>
   <si>
-    <t>N Afectado:Número Afectado;Marca/Modelo:Marca/Modelo;Recurrencia:¿El usuario es recurrente?;Fecha/Hora Intento:¿Cuando se realizó el último intento?;Origen: Ingresa el número de origen; Destino: Ingresa el número de destino; Mensaje de error: Mensaje que escucha/ve el cliente;IMEI:IMEI;Estado MCT:Estado MCT;Estado XIUS:Estado XIUS;Consumo XIUS|name=consumo_xius|type=choices|choices=SI;NO;N/A:¿Aparece consumo en XIUS?;Valida XIUS|name=vXius|type=choices|choices=SIM coincide en CRM y XIUS;SIM no coincide CRM y XIUS: Indica si coinciden;Retoma|name=retoma|type=choices|choices=SI;NO: Indica si retoma;Escalamiento |name=escalamiento|type=choices|choices=SI;NO:Indica si se escala</t>
+    <t>N Afectado:Número Afectado;Marca/Modelo:Marca/Modelo;Recurrencia:¿El usuario es recurrente?;IMEI:IMEI;Estado MCT:Estado MCT;Estado XIUS:Estado XIUS;Consumo XIUS|name=consumo_xius|type=choices|choices=SI;NO;N/A:¿Aparece consumo en XIUS?;Valida XIUS|name=vXius|type=choices|choices=SIM coincide en CRM y XIUS;SIM no coincide CRM y XIUS: Indica si coinciden;N VLR:Ingresa el VLR XIUS;Retoma|name=retoma|type=choices|choices=SI;NO: Indica si retoma;Escalamiento |name=escalamiento|type=choices|choices=SI;NO:Indica si se escala</t>
+  </si>
+  <si>
+    <t>N Afectado:Número Afectado;Marca/Modelo:Marca/Modelo;Recurrencia:¿El usuario es recurrente?;Fecha/Hora Intento:¿Cuando se realizó el último intento?;Origen: Ingresa el número de origen; Destino: Ingresa el número de destino; Mensaje de error: Mensaje que escucha/ve el cliente;IMEI:IMEI;Estado MCT:Estado MCT;Estado XIUS:Estado XIUS;Consumo XIUS|name=consumo_xius|type=choices|choices=SI;NO;N/A:¿Aparece consumo en XIUS?;Valida XIUS|name=vXius|type=choices|choices=SIM coincide en CRM y XIUS;SIM no coincide CRM y XIUS: Indica si coinciden;N VLR:Ingresa el VLR XIUS;Retoma|name=retoma|type=choices|choices=SI;NO: Indica si retoma;Escalamiento |name=escalamiento|type=choices|choices=SI;NO:Indica si se escala</t>
+  </si>
+  <si>
+    <t>N Afectado:Número Afectado;Marca/Modelo:Marca/Modelo;Recurrencia:¿El usuario es recurrente?;APPS:Indica las apps afectadas;IMEI:IMEI;Estado MCT:Estado MCT;Estado XIUS:Estado XIUS;Consumo XIUS|name=consumo_xius|type=choices|choices=SI;NO;N/A:¿Aparece consumo en XIUS?;Valida XIUS|name=vXius|type=choices|choices=SIM coincide en CRM y XIUS;SIM no coincide CRM y XIUS: Indica si coinciden;N VLR:Ingresa el VLR XIUS;Retoma|name=retoma|type=choices|choices=SI;NO: Indica si retoma;Escalamiento |name=escalamiento|type=choices|choices=SI;NO:Indica si se escala</t>
   </si>
 </sst>
 </file>
@@ -1437,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E40" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3779,7 +3779,7 @@
         <v>4</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>285</v>
@@ -3837,7 +3837,7 @@
         <v>4</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>285</v>
@@ -3869,7 +3869,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C54" s="2">
         <v>52</v>
@@ -3895,7 +3895,7 @@
         <v>4</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>285</v>
@@ -3953,7 +3953,7 @@
         <v>4</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>285</v>
@@ -4011,7 +4011,7 @@
         <v>4</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>285</v>
@@ -4069,7 +4069,7 @@
         <v>4</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>285</v>
@@ -4130,7 +4130,7 @@
         <v>4</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>285</v>
@@ -4188,7 +4188,7 @@
         <v>4</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>285</v>
@@ -4246,7 +4246,7 @@
         <v>4</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>285</v>
@@ -4304,7 +4304,7 @@
         <v>4</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>285</v>
@@ -4362,7 +4362,7 @@
         <v>4</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>285</v>
